--- a/CSVToScriptableObject/Assets/Tables/TestTableFirst.xlsx
+++ b/CSVToScriptableObject/Assets/Tables/TestTableFirst.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Unity Project\CSVToScriptableObject\Assets\Tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\CSVToScriptableObject\CSVToScriptableObject\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19D79927-7B93-4E99-B0CE-E872C1F76335}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C54E09-FC6D-4813-B727-293ADD6BA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6585" yWindow="1875" windowWidth="28800" windowHeight="18255" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="28770" windowHeight="15450" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,27 +86,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>name3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>name4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>desc4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>name2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>name3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>name4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>desc2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>desc4</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +503,13 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -555,10 +558,10 @@
         <v>1002</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
@@ -569,10 +572,10 @@
         <v>1003</v>
       </c>
       <c r="B5" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
         <v>10</v>
@@ -583,10 +586,10 @@
         <v>1004</v>
       </c>
       <c r="B6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C6" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D6" t="s">
         <v>11</v>

--- a/CSVToScriptableObject/Assets/Tables/TestTableFirst.xlsx
+++ b/CSVToScriptableObject/Assets/Tables/TestTableFirst.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Git Hub\CSVToScriptableObject\CSVToScriptableObject\Assets\Tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7C54E09-FC6D-4813-B727-293ADD6BA7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D42FFF1-EF9F-4228-B525-DAC4E44D57A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="28770" windowHeight="15450" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
+    <workbookView xWindow="7950" yWindow="2460" windowWidth="28770" windowHeight="15450" xr2:uid="{950BFA12-91E0-4A26-A448-4D1BDCD4031A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
   <si>
     <t>Name</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,27 @@
   <si>
     <t>desc2</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnumType</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnum1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TestEnum2</t>
+  </si>
+  <si>
+    <t>TestEnum3</t>
+  </si>
+  <si>
+    <t>TestEnum4</t>
   </si>
 </sst>
 </file>
@@ -131,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -141,6 +162,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -159,11 +186,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -500,18 +530,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23923AA9-0705-4859-8D98-03F4AF141AD0}">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="5" max="5" width="10.875" customWidth="1"/>
+    <col min="5" max="5" width="16.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -524,22 +554,28 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="1" t="s">
+        <v>19</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="E2" s="2" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1001</v>
       </c>
@@ -552,8 +588,11 @@
       <c r="D3" t="s">
         <v>8</v>
       </c>
+      <c r="E3" t="s">
+        <v>20</v>
+      </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>1002</v>
       </c>
@@ -566,8 +605,11 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
+      <c r="E4" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>1003</v>
       </c>
@@ -580,8 +622,11 @@
       <c r="D5" t="s">
         <v>10</v>
       </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>1004</v>
       </c>
@@ -593,6 +638,9 @@
       </c>
       <c r="D6" t="s">
         <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
